--- a/ScenarioTestDocs-.xlsx
+++ b/ScenarioTestDocs-.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095050\Documents\BootCamp Hacktiv8 x BFI\KATALON SUPER\FinalProjectKatalaon_Web Testing\Final Project_Web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\095050\Documents\BootCamp Hacktiv8 x BFI\KATALON SUPER\FinalProjectKatalaon_Web Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="156">
   <si>
     <t>Created By</t>
   </si>
@@ -598,6 +598,12 @@
   </si>
   <si>
     <t>1.Call UA01_Register</t>
+  </si>
+  <si>
+    <t>Yusuf</t>
+  </si>
+  <si>
+    <t>M Fariz</t>
   </si>
 </sst>
 </file>
@@ -1285,114 +1291,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1405,23 +1309,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1429,15 +1325,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1465,23 +1367,127 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,12 +1497,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1515,6 +1515,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1734,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B70" sqref="A70:XFD77"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1756,22 +1762,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="60"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="122" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="123"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1824,22 +1830,22 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="63" t="s">
+      <c r="F3" s="121"/>
+      <c r="G3" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="H3" s="60"/>
+      <c r="H3" s="123"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1892,15 +1898,15 @@
       <c r="AB4" s="3"/>
     </row>
     <row r="5" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="23" t="s">
@@ -1938,12 +1944,12 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="74"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="10">
         <v>0</v>
@@ -2009,10 +2015,10 @@
       <c r="C8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="78"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="14" t="s">
         <v>17</v>
       </c>
@@ -2046,19 +2052,19 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="117" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="70"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18" t="s">
         <v>22</v>
@@ -2090,14 +2096,14 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="75" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="66" t="s">
+      <c r="E10" s="67"/>
+      <c r="F10" s="90" t="s">
         <v>80</v>
       </c>
       <c r="G10" s="19" t="s">
@@ -2128,14 +2134,14 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="69" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="94"/>
       <c r="G11" s="19" t="s">
         <v>81</v>
       </c>
@@ -2164,14 +2170,14 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="64" t="s">
+      <c r="A12" s="88"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="112" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="67"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="19" t="s">
         <v>82</v>
       </c>
@@ -2200,14 +2206,14 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="64" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="67"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="94"/>
       <c r="G13" s="19" t="s">
         <v>83</v>
       </c>
@@ -2236,12 +2242,12 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="71"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="109"/>
       <c r="E14" s="72"/>
-      <c r="F14" s="68"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="98"/>
@@ -2266,18 +2272,18 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="66" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="111" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="70"/>
-      <c r="F15" s="106" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="102" t="s">
         <v>89</v>
       </c>
       <c r="G15" s="18" t="s">
@@ -2286,7 +2292,7 @@
       <c r="H15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="102" t="s">
+      <c r="I15" s="64" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="4"/>
@@ -2310,21 +2316,21 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="75" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="107"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="103"/>
       <c r="G16" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="100"/>
+      <c r="I16" s="62"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2346,21 +2352,21 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="73"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="69" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="111" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="107"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="103"/>
       <c r="G17" s="19" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="100"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="4"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2382,21 +2388,21 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="64" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="65"/>
-      <c r="F18" s="107"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="103"/>
       <c r="G18" s="46" t="s">
         <v>82</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="100"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="29"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2418,21 +2424,21 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="74"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="81" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="108"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="45" t="s">
         <v>90</v>
       </c>
       <c r="H19" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="I19" s="103"/>
+      <c r="I19" s="99"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2454,18 +2460,18 @@
       <c r="AB19" s="3"/>
     </row>
     <row r="20" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="66" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="90" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="95" t="s">
+      <c r="E20" s="108"/>
+      <c r="F20" s="93" t="s">
         <v>80</v>
       </c>
       <c r="G20" s="19" t="s">
@@ -2474,7 +2480,7 @@
       <c r="H20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="105" t="s">
+      <c r="I20" s="101" t="s">
         <v>11</v>
       </c>
       <c r="J20" s="3"/>
@@ -2498,21 +2504,21 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="75" t="s">
+      <c r="A21" s="106"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="19" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="67"/>
+      <c r="I21" s="94"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2534,21 +2540,21 @@
       <c r="AB21" s="3"/>
     </row>
     <row r="22" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="86"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="75" t="s">
+      <c r="A22" s="106"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="70"/>
-      <c r="F22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="19" t="s">
         <v>81</v>
       </c>
       <c r="H22" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="67"/>
+      <c r="I22" s="94"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -2570,21 +2576,21 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="87"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="85" t="s">
+      <c r="A23" s="107"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="110" t="s">
         <v>95</v>
       </c>
       <c r="E23" s="72"/>
-      <c r="F23" s="104"/>
+      <c r="F23" s="100"/>
       <c r="G23" s="48" t="s">
         <v>96</v>
       </c>
       <c r="H23" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="68"/>
+      <c r="I23" s="95"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2606,20 +2612,20 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="124" t="s">
+      <c r="B24" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="95" t="s">
+      <c r="E24" s="108"/>
+      <c r="F24" s="93" t="s">
         <v>109</v>
       </c>
       <c r="G24" s="19" t="s">
@@ -2652,14 +2658,14 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="86"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="75" t="s">
+      <c r="A25" s="106"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="70"/>
-      <c r="F25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="94"/>
       <c r="G25" s="19" t="s">
         <v>81</v>
       </c>
@@ -2688,14 +2694,14 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="86"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="75" t="s">
+      <c r="A26" s="106"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="94"/>
       <c r="G26" s="43" t="s">
         <v>110</v>
       </c>
@@ -2724,12 +2730,12 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="71"/>
+      <c r="A27" s="107"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="109"/>
       <c r="E27" s="72"/>
-      <c r="F27" s="68"/>
+      <c r="F27" s="95"/>
       <c r="G27" s="20"/>
       <c r="H27" s="52"/>
       <c r="I27" s="98"/>
@@ -2754,18 +2760,18 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="80" t="s">
+      <c r="A28" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="66" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="89"/>
-      <c r="F28" s="99" t="s">
+      <c r="E28" s="77"/>
+      <c r="F28" s="61" t="s">
         <v>126</v>
       </c>
       <c r="G28" s="19" t="s">
@@ -2774,7 +2780,7 @@
       <c r="H28" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I28" s="102" t="s">
+      <c r="I28" s="64" t="s">
         <v>10</v>
       </c>
       <c r="J28" s="3"/>
@@ -2798,21 +2804,21 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="73"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="75" t="s">
+      <c r="A29" s="88"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="100"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="19" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="100"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2834,21 +2840,21 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="73"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="75" t="s">
+      <c r="A30" s="88"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="70"/>
-      <c r="F30" s="100"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="62"/>
       <c r="G30" s="53" t="s">
         <v>120</v>
       </c>
       <c r="H30" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="100"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2870,21 +2876,21 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="73"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="93" t="s">
+      <c r="A31" s="88"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E31" s="94"/>
-      <c r="F31" s="100"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="53" t="s">
         <v>121</v>
       </c>
       <c r="H31" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="I31" s="100"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2906,21 +2912,21 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="73"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="109" t="s">
+      <c r="A32" s="88"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="110"/>
-      <c r="F32" s="100"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="53" t="s">
         <v>122</v>
       </c>
       <c r="H32" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="I32" s="100"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2942,21 +2948,21 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="73"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="109" t="s">
+      <c r="A33" s="88"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="110"/>
-      <c r="F33" s="100"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="53" t="s">
         <v>123</v>
       </c>
       <c r="H33" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I33" s="100"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2978,21 +2984,21 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="73"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="93" t="s">
+      <c r="A34" s="88"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="94"/>
-      <c r="F34" s="100"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="53" t="s">
         <v>124</v>
       </c>
       <c r="H34" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="I34" s="100"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3014,21 +3020,21 @@
       <c r="AB34" s="3"/>
     </row>
     <row r="35" spans="1:28" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="74"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="90" t="s">
+      <c r="A35" s="89"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="71" t="s">
         <v>118</v>
       </c>
       <c r="E35" s="72"/>
-      <c r="F35" s="101"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="54" t="s">
         <v>125</v>
       </c>
       <c r="H35" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="I35" s="101"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3050,18 +3056,18 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="80" t="s">
+      <c r="A36" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="66" t="s">
+      <c r="B36" s="87"/>
+      <c r="C36" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="99" t="s">
+      <c r="E36" s="77"/>
+      <c r="F36" s="61" t="s">
         <v>129</v>
       </c>
       <c r="G36" s="19" t="s">
@@ -3070,7 +3076,7 @@
       <c r="H36" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I36" s="102" t="s">
+      <c r="I36" s="64" t="s">
         <v>10</v>
       </c>
       <c r="J36" s="3"/>
@@ -3094,21 +3100,21 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="73"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="75" t="s">
+      <c r="A37" s="88"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="70"/>
-      <c r="F37" s="100"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="19" t="s">
         <v>81</v>
       </c>
       <c r="H37" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="I37" s="100"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3130,21 +3136,21 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="73"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="75" t="s">
+      <c r="A38" s="88"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="70"/>
-      <c r="F38" s="100"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="53" t="s">
         <v>120</v>
       </c>
       <c r="H38" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="I38" s="100"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3166,21 +3172,21 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="73"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="93" t="s">
+      <c r="A39" s="88"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="94"/>
-      <c r="F39" s="100"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="53" t="s">
         <v>121</v>
       </c>
       <c r="H39" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="I39" s="100"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3202,21 +3208,21 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="73"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="109" t="s">
+      <c r="A40" s="88"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="110"/>
-      <c r="F40" s="100"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="53" t="s">
         <v>122</v>
       </c>
       <c r="H40" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="I40" s="100"/>
+      <c r="I40" s="62"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3238,21 +3244,21 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="73"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="109" t="s">
+      <c r="A41" s="88"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="110"/>
-      <c r="F41" s="100"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="62"/>
       <c r="G41" s="53" t="s">
         <v>123</v>
       </c>
       <c r="H41" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I41" s="100"/>
+      <c r="I41" s="62"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3274,21 +3280,21 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="73"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="93" t="s">
+      <c r="A42" s="88"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="94"/>
-      <c r="F42" s="100"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="53" t="s">
         <v>124</v>
       </c>
       <c r="H42" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="I42" s="100"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3310,21 +3316,21 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="74"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="90" t="s">
+      <c r="A43" s="89"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="71" t="s">
         <v>118</v>
       </c>
       <c r="E43" s="72"/>
-      <c r="F43" s="101"/>
+      <c r="F43" s="63"/>
       <c r="G43" s="54" t="s">
         <v>125</v>
       </c>
       <c r="H43" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="101"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3349,15 +3355,15 @@
       <c r="A44" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="80"/>
-      <c r="C44" s="66" t="s">
+      <c r="B44" s="87"/>
+      <c r="C44" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="89"/>
-      <c r="F44" s="99" t="s">
+      <c r="E44" s="77"/>
+      <c r="F44" s="61" t="s">
         <v>129</v>
       </c>
       <c r="G44" s="19" t="s">
@@ -3366,7 +3372,7 @@
       <c r="H44" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="102" t="s">
+      <c r="I44" s="64" t="s">
         <v>10</v>
       </c>
       <c r="J44" s="3"/>
@@ -3390,21 +3396,21 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="75" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="70"/>
-      <c r="F45" s="100"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="62"/>
       <c r="G45" s="19" t="s">
         <v>81</v>
       </c>
       <c r="H45" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="I45" s="100"/>
+      <c r="I45" s="62"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3426,21 +3432,21 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="75" t="s">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="70"/>
-      <c r="F46" s="100"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="62"/>
       <c r="G46" s="56" t="s">
         <v>134</v>
       </c>
       <c r="H46" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="I46" s="100"/>
+      <c r="I46" s="62"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3462,21 +3468,21 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="93" t="s">
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="94"/>
-      <c r="F47" s="100"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="62"/>
       <c r="G47" s="56" t="s">
         <v>135</v>
       </c>
       <c r="H47" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="I47" s="100"/>
+      <c r="I47" s="62"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3498,21 +3504,21 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="117" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="79" t="s">
         <v>133</v>
       </c>
-      <c r="E48" s="118"/>
-      <c r="F48" s="100"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="62"/>
       <c r="G48" s="53" t="s">
         <v>81</v>
       </c>
       <c r="H48" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="100"/>
+      <c r="I48" s="62"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3534,21 +3540,21 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="109" t="s">
+      <c r="A49" s="87"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E49" s="110"/>
-      <c r="F49" s="100"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="62"/>
       <c r="G49" s="53" t="s">
         <v>122</v>
       </c>
       <c r="H49" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="I49" s="100"/>
+      <c r="I49" s="62"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3570,21 +3576,21 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="109" t="s">
+      <c r="A50" s="87"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="110"/>
-      <c r="F50" s="100"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="62"/>
       <c r="G50" s="53" t="s">
         <v>123</v>
       </c>
       <c r="H50" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="I50" s="100"/>
+      <c r="I50" s="62"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3606,21 +3612,21 @@
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="93" t="s">
+      <c r="A51" s="87"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="94"/>
-      <c r="F51" s="100"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="62"/>
       <c r="G51" s="53" t="s">
         <v>124</v>
       </c>
       <c r="H51" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="I51" s="100"/>
+      <c r="I51" s="62"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3642,21 +3648,21 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="80"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="119" t="s">
+      <c r="A52" s="87"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="E52" s="118"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="122" t="s">
+      <c r="E52" s="80"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="H52" s="122" t="s">
+      <c r="H52" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="I52" s="100"/>
+      <c r="I52" s="62"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3678,15 +3684,15 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="125"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="120"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="101"/>
-      <c r="G53" s="123"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="101"/>
+      <c r="A53" s="92"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="63"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3708,20 +3714,20 @@
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="111" t="s">
+      <c r="A54" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="126" t="s">
+      <c r="B54" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="113" t="s">
+      <c r="C54" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="89"/>
-      <c r="F54" s="99" t="s">
+      <c r="E54" s="77"/>
+      <c r="F54" s="61" t="s">
         <v>147</v>
       </c>
       <c r="G54" s="43" t="s">
@@ -3730,7 +3736,7 @@
       <c r="H54" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="I54" s="102" t="s">
+      <c r="I54" s="64" t="s">
         <v>10</v>
       </c>
       <c r="J54" s="3"/>
@@ -3754,21 +3760,21 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="88"/>
-      <c r="B55" s="126"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="75" t="s">
+      <c r="A55" s="74"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="70"/>
-      <c r="F55" s="100"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="62"/>
       <c r="G55" s="43" t="s">
         <v>148</v>
       </c>
       <c r="H55" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="I55" s="100"/>
+      <c r="I55" s="62"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3790,21 +3796,21 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="88"/>
-      <c r="B56" s="126"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="75" t="s">
+      <c r="A56" s="74"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="70"/>
-      <c r="F56" s="100"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="62"/>
       <c r="G56" s="56" t="s">
         <v>96</v>
       </c>
       <c r="H56" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="I56" s="100"/>
+      <c r="I56" s="62"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
@@ -3826,21 +3832,21 @@
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="88"/>
-      <c r="B57" s="126"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="93" t="s">
+      <c r="A57" s="74"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="94"/>
-      <c r="F57" s="100"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="62"/>
       <c r="G57" s="56" t="s">
         <v>149</v>
       </c>
       <c r="H57" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="I57" s="100"/>
+      <c r="I57" s="62"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3862,21 +3868,21 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="88"/>
-      <c r="B58" s="126"/>
-      <c r="C58" s="114"/>
-      <c r="D58" s="109" t="s">
+      <c r="A58" s="74"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="110"/>
-      <c r="F58" s="100"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="62"/>
       <c r="G58" s="53" t="s">
         <v>81</v>
       </c>
       <c r="H58" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I58" s="100"/>
+      <c r="I58" s="62"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -3898,21 +3904,21 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="88"/>
-      <c r="B59" s="126"/>
-      <c r="C59" s="114"/>
-      <c r="D59" s="109" t="s">
+      <c r="A59" s="74"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="110"/>
-      <c r="F59" s="100"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="62"/>
       <c r="G59" s="53" t="s">
         <v>99</v>
       </c>
       <c r="H59" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="I59" s="100"/>
+      <c r="I59" s="62"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3934,21 +3940,21 @@
       <c r="AB59" s="3"/>
     </row>
     <row r="60" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="88"/>
-      <c r="B60" s="126"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="93" t="s">
+      <c r="A60" s="74"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="94"/>
-      <c r="F60" s="100"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="62"/>
       <c r="G60" s="53" t="s">
         <v>99</v>
       </c>
       <c r="H60" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="I60" s="100"/>
+      <c r="I60" s="62"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3970,21 +3976,21 @@
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="112"/>
-      <c r="B61" s="126"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="90" t="s">
+      <c r="A61" s="75"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="71" t="s">
         <v>146</v>
       </c>
       <c r="E61" s="72"/>
-      <c r="F61" s="101"/>
+      <c r="F61" s="63"/>
       <c r="G61" s="54" t="s">
         <v>99</v>
       </c>
       <c r="H61" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="I61" s="101"/>
+      <c r="I61" s="63"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -4006,18 +4012,18 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="111" t="s">
+      <c r="A62" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="126"/>
-      <c r="C62" s="113" t="s">
+      <c r="B62" s="65"/>
+      <c r="C62" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="83" t="s">
+      <c r="D62" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="E62" s="116"/>
-      <c r="F62" s="99" t="s">
+      <c r="E62" s="78"/>
+      <c r="F62" s="61" t="s">
         <v>151</v>
       </c>
       <c r="G62" s="43" t="s">
@@ -4026,7 +4032,7 @@
       <c r="H62" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="I62" s="102" t="s">
+      <c r="I62" s="64" t="s">
         <v>10</v>
       </c>
       <c r="J62" s="3"/>
@@ -4050,21 +4056,21 @@
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="88"/>
-      <c r="B63" s="126"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="75" t="s">
+      <c r="A63" s="74"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="E63" s="70"/>
-      <c r="F63" s="100"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="62"/>
       <c r="G63" s="43" t="s">
         <v>148</v>
       </c>
       <c r="H63" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="I63" s="100"/>
+      <c r="I63" s="62"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -4086,21 +4092,21 @@
       <c r="AB63" s="3"/>
     </row>
     <row r="64" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="88"/>
-      <c r="B64" s="126"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="75" t="s">
+      <c r="A64" s="74"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="E64" s="70"/>
-      <c r="F64" s="100"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="62"/>
       <c r="G64" s="56" t="s">
         <v>96</v>
       </c>
       <c r="H64" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="I64" s="100"/>
+      <c r="I64" s="62"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -4122,21 +4128,21 @@
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="88"/>
-      <c r="B65" s="126"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="93" t="s">
+      <c r="A65" s="74"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="94"/>
-      <c r="F65" s="100"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="62"/>
       <c r="G65" s="56" t="s">
         <v>149</v>
       </c>
       <c r="H65" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="I65" s="100"/>
+      <c r="I65" s="62"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4158,21 +4164,21 @@
       <c r="AB65" s="3"/>
     </row>
     <row r="66" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="88"/>
-      <c r="B66" s="126"/>
-      <c r="C66" s="114"/>
-      <c r="D66" s="109" t="s">
+      <c r="A66" s="74"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="E66" s="110"/>
-      <c r="F66" s="100"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="53" t="s">
         <v>81</v>
       </c>
       <c r="H66" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="I66" s="100"/>
+      <c r="I66" s="62"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -4194,21 +4200,21 @@
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="88"/>
-      <c r="B67" s="126"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="109" t="s">
+      <c r="A67" s="74"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="E67" s="110"/>
-      <c r="F67" s="100"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="53" t="s">
         <v>99</v>
       </c>
       <c r="H67" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="I67" s="100"/>
+      <c r="I67" s="62"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4230,21 +4236,21 @@
       <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="88"/>
-      <c r="B68" s="126"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="93" t="s">
+      <c r="A68" s="74"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="E68" s="94"/>
-      <c r="F68" s="100"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="53" t="s">
         <v>99</v>
       </c>
       <c r="H68" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="I68" s="100"/>
+      <c r="I68" s="62"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4266,21 +4272,21 @@
       <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28" s="30" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="112"/>
-      <c r="B69" s="126"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="90" t="s">
+      <c r="A69" s="75"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="71" t="s">
         <v>146</v>
       </c>
       <c r="E69" s="72"/>
-      <c r="F69" s="101"/>
+      <c r="F69" s="63"/>
       <c r="G69" s="54" t="s">
         <v>99</v>
       </c>
       <c r="H69" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="I69" s="101"/>
+      <c r="I69" s="63"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -8623,25 +8629,73 @@
     <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="C62:C69"/>
-    <mergeCell ref="F62:F69"/>
-    <mergeCell ref="I62:I69"/>
-    <mergeCell ref="B54:B69"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I54:I61"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B9:B23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="F28:F35"/>
+    <mergeCell ref="I28:I35"/>
+    <mergeCell ref="F36:F43"/>
+    <mergeCell ref="I36:I43"/>
+    <mergeCell ref="I15:I19"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="C44:C53"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="A54:A61"/>
     <mergeCell ref="C54:C61"/>
     <mergeCell ref="D54:E54"/>
@@ -8666,73 +8720,25 @@
     <mergeCell ref="C36:C43"/>
     <mergeCell ref="A44:A53"/>
     <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="C44:C53"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="F28:F35"/>
-    <mergeCell ref="I28:I35"/>
-    <mergeCell ref="F36:F43"/>
-    <mergeCell ref="I36:I43"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="B9:B23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="C28:C35"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="C62:C69"/>
+    <mergeCell ref="F62:F69"/>
+    <mergeCell ref="I62:I69"/>
+    <mergeCell ref="B54:B69"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I54:I61"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -8766,23 +8772,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="121"/>
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="138"/>
-      <c r="H1" s="59" t="s">
+      <c r="G1" s="136"/>
+      <c r="H1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="60"/>
+      <c r="I1" s="123"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -8836,23 +8842,23 @@
       <c r="AC2" s="3"/>
     </row>
     <row r="3" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
+      <c r="B3" s="121"/>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140" t="s">
+      <c r="G3" s="137"/>
+      <c r="H3" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="60"/>
+      <c r="I3" s="123"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -8906,16 +8912,16 @@
       <c r="AC4" s="3"/>
     </row>
     <row r="5" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="58"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="114" t="s">
         <v>9</v>
       </c>
       <c r="G5" s="23" t="s">
@@ -8954,7 +8960,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="141"/>
+      <c r="F6" s="139"/>
       <c r="G6" s="9">
         <v>12</v>
       </c>
@@ -9029,10 +9035,10 @@
       <c r="D8" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="142"/>
+      <c r="F8" s="140"/>
       <c r="G8" s="32" t="s">
         <v>17</v>
       </c>
@@ -9066,23 +9072,23 @@
       <c r="AC8" s="3"/>
     </row>
     <row r="9" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="135" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="130"/>
-      <c r="G9" s="129" t="s">
+      <c r="G9" s="127" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="33" t="s">
@@ -9113,15 +9119,15 @@
       <c r="AC9" s="3"/>
     </row>
     <row r="10" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="128"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="133"/>
-      <c r="C10" s="128"/>
-      <c r="D10" s="100"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="130"/>
-      <c r="G10" s="129"/>
+      <c r="G10" s="127"/>
       <c r="H10" s="34" t="s">
         <v>24</v>
       </c>
@@ -9150,15 +9156,15 @@
       <c r="AC10" s="3"/>
     </row>
     <row r="11" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="128"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="133"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="100"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="130"/>
-      <c r="G11" s="129"/>
+      <c r="G11" s="127"/>
       <c r="H11" s="34" t="s">
         <v>42</v>
       </c>
@@ -9187,15 +9193,15 @@
       <c r="AC11" s="3"/>
     </row>
     <row r="12" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="128"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="134"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="103"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="99"/>
       <c r="E12" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="130"/>
-      <c r="G12" s="129"/>
+      <c r="G12" s="127"/>
       <c r="H12" s="34" t="s">
         <v>43</v>
       </c>
@@ -9224,23 +9230,23 @@
       <c r="AC12" s="3"/>
     </row>
     <row r="13" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="128" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="136" t="s">
+      <c r="D13" s="131" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="130"/>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="127" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="33" t="s">
@@ -9271,15 +9277,15 @@
       <c r="AC13" s="3"/>
     </row>
     <row r="14" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="128"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="133"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="100"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="130"/>
-      <c r="G14" s="129"/>
+      <c r="G14" s="127"/>
       <c r="H14" s="34" t="s">
         <v>24</v>
       </c>
@@ -9308,15 +9314,15 @@
       <c r="AC14" s="3"/>
     </row>
     <row r="15" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="128"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="133"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="100"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F15" s="130"/>
-      <c r="G15" s="129"/>
+      <c r="G15" s="127"/>
       <c r="H15" s="34" t="s">
         <v>42</v>
       </c>
@@ -9345,15 +9351,15 @@
       <c r="AC15" s="3"/>
     </row>
     <row r="16" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="128"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="134"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="103"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="130"/>
-      <c r="G16" s="129"/>
+      <c r="G16" s="127"/>
       <c r="H16" s="34" t="s">
         <v>44</v>
       </c>
@@ -9384,23 +9390,23 @@
       <c r="AC16" s="3"/>
     </row>
     <row r="17" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="135" t="s">
         <v>28</v>
       </c>
       <c r="B17" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="129" t="s">
+      <c r="C17" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E17" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="130"/>
-      <c r="G17" s="129" t="s">
+      <c r="G17" s="127" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="33" t="s">
@@ -9431,15 +9437,15 @@
       <c r="AC17" s="3"/>
     </row>
     <row r="18" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="128"/>
+      <c r="A18" s="129"/>
       <c r="B18" s="133"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="130"/>
-      <c r="G18" s="129"/>
+      <c r="G18" s="127"/>
       <c r="H18" s="34" t="s">
         <v>24</v>
       </c>
@@ -9468,15 +9474,15 @@
       <c r="AC18" s="3"/>
     </row>
     <row r="19" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="128"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="133"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="100"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="62"/>
       <c r="E19" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="130"/>
-      <c r="G19" s="129"/>
+      <c r="G19" s="127"/>
       <c r="H19" s="34" t="s">
         <v>42</v>
       </c>
@@ -9505,15 +9511,15 @@
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="128"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="134"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="103"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="130"/>
-      <c r="G20" s="129"/>
+      <c r="G20" s="127"/>
       <c r="H20" s="34" t="s">
         <v>43</v>
       </c>
@@ -9542,23 +9548,23 @@
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="137" t="s">
+      <c r="A21" s="135" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="130"/>
-      <c r="G21" s="129" t="s">
+      <c r="G21" s="127" t="s">
         <v>45</v>
       </c>
       <c r="H21" s="33" t="s">
@@ -9589,15 +9595,15 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="128"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="133"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="100"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F22" s="130"/>
-      <c r="G22" s="129"/>
+      <c r="G22" s="127"/>
       <c r="H22" s="34" t="s">
         <v>24</v>
       </c>
@@ -9626,15 +9632,15 @@
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="128"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="133"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="100"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F23" s="130"/>
-      <c r="G23" s="129"/>
+      <c r="G23" s="127"/>
       <c r="H23" s="34" t="s">
         <v>42</v>
       </c>
@@ -9663,15 +9669,15 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="128"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="134"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="103"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="99"/>
       <c r="E24" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="130"/>
-      <c r="G24" s="129"/>
+      <c r="G24" s="127"/>
       <c r="H24" s="34" t="s">
         <v>43</v>
       </c>
@@ -9702,23 +9708,23 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="128" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="129" t="s">
+      <c r="C25" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E25" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="130"/>
-      <c r="G25" s="129" t="s">
+      <c r="G25" s="127" t="s">
         <v>47</v>
       </c>
       <c r="H25" s="33" t="s">
@@ -9749,15 +9755,15 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="128"/>
+      <c r="A26" s="129"/>
       <c r="B26" s="133"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="100"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="130"/>
-      <c r="G26" s="129"/>
+      <c r="G26" s="127"/>
       <c r="H26" s="34" t="s">
         <v>24</v>
       </c>
@@ -9786,15 +9792,15 @@
       <c r="AC26" s="3"/>
     </row>
     <row r="27" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="128"/>
+      <c r="A27" s="129"/>
       <c r="B27" s="133"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="100"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="G27" s="129"/>
+      <c r="G27" s="127"/>
       <c r="H27" s="34" t="s">
         <v>42</v>
       </c>
@@ -9823,15 +9829,15 @@
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="128"/>
+      <c r="A28" s="129"/>
       <c r="B28" s="134"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="103"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="130"/>
-      <c r="G28" s="129"/>
+      <c r="G28" s="127"/>
       <c r="H28" s="34" t="s">
         <v>43</v>
       </c>
@@ -9860,23 +9866,23 @@
       <c r="AC28" s="3"/>
     </row>
     <row r="29" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="137" t="s">
+      <c r="A29" s="135" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="129" t="s">
+      <c r="C29" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="136" t="s">
+      <c r="D29" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E29" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F29" s="130"/>
-      <c r="G29" s="129" t="s">
+      <c r="G29" s="127" t="s">
         <v>40</v>
       </c>
       <c r="H29" s="33" t="s">
@@ -9907,15 +9913,15 @@
       <c r="AC29" s="3"/>
     </row>
     <row r="30" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="128"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="133"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="100"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="130"/>
-      <c r="G30" s="129"/>
+      <c r="G30" s="127"/>
       <c r="H30" s="34" t="s">
         <v>24</v>
       </c>
@@ -9944,15 +9950,15 @@
       <c r="AC30" s="3"/>
     </row>
     <row r="31" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="128"/>
+      <c r="A31" s="129"/>
       <c r="B31" s="133"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="100"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="130"/>
-      <c r="G31" s="129"/>
+      <c r="G31" s="127"/>
       <c r="H31" s="34" t="s">
         <v>42</v>
       </c>
@@ -9981,15 +9987,15 @@
       <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="128"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="134"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="103"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="99"/>
       <c r="E32" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="130"/>
-      <c r="G32" s="129"/>
+      <c r="G32" s="127"/>
       <c r="H32" s="34" t="s">
         <v>43</v>
       </c>
@@ -10018,23 +10024,23 @@
       <c r="AC32" s="3"/>
     </row>
     <row r="33" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="135" t="s">
+      <c r="A33" s="128" t="s">
         <v>54</v>
       </c>
       <c r="B33" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="129" t="s">
+      <c r="C33" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="136" t="s">
+      <c r="D33" s="131" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F33" s="130"/>
-      <c r="G33" s="129" t="s">
+      <c r="G33" s="127" t="s">
         <v>48</v>
       </c>
       <c r="H33" s="33" t="s">
@@ -10065,15 +10071,15 @@
       <c r="AC33" s="3"/>
     </row>
     <row r="34" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="128"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="133"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="100"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F34" s="130"/>
-      <c r="G34" s="129"/>
+      <c r="G34" s="127"/>
       <c r="H34" s="34" t="s">
         <v>24</v>
       </c>
@@ -10102,15 +10108,15 @@
       <c r="AC34" s="3"/>
     </row>
     <row r="35" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="128"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="133"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="100"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="130"/>
-      <c r="G35" s="129"/>
+      <c r="G35" s="127"/>
       <c r="H35" s="34" t="s">
         <v>42</v>
       </c>
@@ -10139,15 +10145,15 @@
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="128"/>
+      <c r="A36" s="129"/>
       <c r="B36" s="134"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="103"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="99"/>
       <c r="E36" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F36" s="130"/>
-      <c r="G36" s="129"/>
+      <c r="G36" s="127"/>
       <c r="H36" s="34" t="s">
         <v>44</v>
       </c>
@@ -10176,23 +10182,23 @@
       <c r="AC36" s="3"/>
     </row>
     <row r="37" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="137" t="s">
+      <c r="A37" s="135" t="s">
         <v>55</v>
       </c>
       <c r="B37" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="129" t="s">
+      <c r="C37" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="136" t="s">
+      <c r="D37" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E37" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F37" s="130"/>
-      <c r="G37" s="129" t="s">
+      <c r="G37" s="127" t="s">
         <v>49</v>
       </c>
       <c r="H37" s="33" t="s">
@@ -10223,15 +10229,15 @@
       <c r="AC37" s="3"/>
     </row>
     <row r="38" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="128"/>
+      <c r="A38" s="129"/>
       <c r="B38" s="133"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="100"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F38" s="130"/>
-      <c r="G38" s="129"/>
+      <c r="G38" s="127"/>
       <c r="H38" s="34" t="s">
         <v>24</v>
       </c>
@@ -10260,15 +10266,15 @@
       <c r="AC38" s="3"/>
     </row>
     <row r="39" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="128"/>
+      <c r="A39" s="129"/>
       <c r="B39" s="133"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="100"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="62"/>
       <c r="E39" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F39" s="130"/>
-      <c r="G39" s="129"/>
+      <c r="G39" s="127"/>
       <c r="H39" s="34" t="s">
         <v>42</v>
       </c>
@@ -10297,15 +10303,15 @@
       <c r="AC39" s="3"/>
     </row>
     <row r="40" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="128"/>
+      <c r="A40" s="129"/>
       <c r="B40" s="134"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="103"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="99"/>
       <c r="E40" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="130"/>
-      <c r="G40" s="129"/>
+      <c r="G40" s="127"/>
       <c r="H40" s="34" t="s">
         <v>43</v>
       </c>
@@ -10334,23 +10340,23 @@
       <c r="AC40" s="3"/>
     </row>
     <row r="41" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="135" t="s">
+      <c r="A41" s="128" t="s">
         <v>56</v>
       </c>
       <c r="B41" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="129" t="s">
+      <c r="C41" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="136" t="s">
+      <c r="D41" s="131" t="s">
         <v>74</v>
       </c>
       <c r="E41" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F41" s="130"/>
-      <c r="G41" s="129" t="s">
+      <c r="G41" s="127" t="s">
         <v>50</v>
       </c>
       <c r="H41" s="33" t="s">
@@ -10381,15 +10387,15 @@
       <c r="AC41" s="3"/>
     </row>
     <row r="42" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="128"/>
+      <c r="A42" s="129"/>
       <c r="B42" s="133"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="100"/>
+      <c r="C42" s="129"/>
+      <c r="D42" s="62"/>
       <c r="E42" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="130"/>
-      <c r="G42" s="129"/>
+      <c r="G42" s="127"/>
       <c r="H42" s="34" t="s">
         <v>24</v>
       </c>
@@ -10418,15 +10424,15 @@
       <c r="AC42" s="3"/>
     </row>
     <row r="43" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="128"/>
+      <c r="A43" s="129"/>
       <c r="B43" s="133"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="100"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="62"/>
       <c r="E43" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F43" s="130"/>
-      <c r="G43" s="129"/>
+      <c r="G43" s="127"/>
       <c r="H43" s="34" t="s">
         <v>42</v>
       </c>
@@ -10455,15 +10461,15 @@
       <c r="AC43" s="3"/>
     </row>
     <row r="44" spans="1:29" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="128"/>
+      <c r="A44" s="129"/>
       <c r="B44" s="134"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="103"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="99"/>
       <c r="E44" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F44" s="130"/>
-      <c r="G44" s="129"/>
+      <c r="G44" s="127"/>
       <c r="H44" s="34" t="s">
         <v>44</v>
       </c>
@@ -10492,23 +10498,23 @@
       <c r="AC44" s="3"/>
     </row>
     <row r="45" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="137" t="s">
+      <c r="A45" s="135" t="s">
         <v>57</v>
       </c>
       <c r="B45" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="129" t="s">
+      <c r="C45" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="136" t="s">
+      <c r="D45" s="131" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F45" s="130"/>
-      <c r="G45" s="129" t="s">
+      <c r="G45" s="127" t="s">
         <v>51</v>
       </c>
       <c r="H45" s="33" t="s">
@@ -10539,15 +10545,15 @@
       <c r="AC45" s="3"/>
     </row>
     <row r="46" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="128"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="133"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="100"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="130"/>
-      <c r="G46" s="129"/>
+      <c r="G46" s="127"/>
       <c r="H46" s="34" t="s">
         <v>24</v>
       </c>
@@ -10576,15 +10582,15 @@
       <c r="AC46" s="3"/>
     </row>
     <row r="47" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="128"/>
+      <c r="A47" s="129"/>
       <c r="B47" s="133"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="100"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F47" s="130"/>
-      <c r="G47" s="129"/>
+      <c r="G47" s="127"/>
       <c r="H47" s="34" t="s">
         <v>42</v>
       </c>
@@ -10613,15 +10619,15 @@
       <c r="AC47" s="3"/>
     </row>
     <row r="48" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="128"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="134"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="103"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F48" s="130"/>
-      <c r="G48" s="129"/>
+      <c r="G48" s="127"/>
       <c r="H48" s="34" t="s">
         <v>44</v>
       </c>
@@ -10652,23 +10658,23 @@
       <c r="AC48" s="3"/>
     </row>
     <row r="49" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="135" t="s">
+      <c r="A49" s="128" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="129" t="s">
+      <c r="C49" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="136" t="s">
+      <c r="D49" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E49" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F49" s="130"/>
-      <c r="G49" s="129" t="s">
+      <c r="G49" s="127" t="s">
         <v>52</v>
       </c>
       <c r="H49" s="33" t="s">
@@ -10699,15 +10705,15 @@
       <c r="AC49" s="3"/>
     </row>
     <row r="50" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="128"/>
+      <c r="A50" s="129"/>
       <c r="B50" s="133"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="100"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="130"/>
-      <c r="G50" s="129"/>
+      <c r="G50" s="127"/>
       <c r="H50" s="34" t="s">
         <v>24</v>
       </c>
@@ -10736,15 +10742,15 @@
       <c r="AC50" s="3"/>
     </row>
     <row r="51" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="128"/>
+      <c r="A51" s="129"/>
       <c r="B51" s="133"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="100"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="62"/>
       <c r="E51" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F51" s="130"/>
-      <c r="G51" s="129"/>
+      <c r="G51" s="127"/>
       <c r="H51" s="34" t="s">
         <v>42</v>
       </c>
@@ -10773,15 +10779,15 @@
       <c r="AC51" s="3"/>
     </row>
     <row r="52" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="128"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="134"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="103"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="99"/>
       <c r="E52" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F52" s="130"/>
-      <c r="G52" s="129"/>
+      <c r="G52" s="127"/>
       <c r="H52" s="34" t="s">
         <v>43</v>
       </c>
@@ -10810,23 +10816,23 @@
       <c r="AC52" s="3"/>
     </row>
     <row r="53" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="137" t="s">
+      <c r="A53" s="135" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="129" t="s">
+      <c r="C53" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="D53" s="136" t="s">
+      <c r="D53" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E53" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F53" s="130"/>
-      <c r="G53" s="129" t="s">
+      <c r="G53" s="127" t="s">
         <v>53</v>
       </c>
       <c r="H53" s="33" t="s">
@@ -10857,15 +10863,15 @@
       <c r="AC53" s="3"/>
     </row>
     <row r="54" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="128"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="133"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="100"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="62"/>
       <c r="E54" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F54" s="130"/>
-      <c r="G54" s="129"/>
+      <c r="G54" s="127"/>
       <c r="H54" s="34" t="s">
         <v>24</v>
       </c>
@@ -10894,15 +10900,15 @@
       <c r="AC54" s="3"/>
     </row>
     <row r="55" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="128"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="133"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="100"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="62"/>
       <c r="E55" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F55" s="130"/>
-      <c r="G55" s="129"/>
+      <c r="G55" s="127"/>
       <c r="H55" s="34" t="s">
         <v>42</v>
       </c>
@@ -10931,15 +10937,15 @@
       <c r="AC55" s="3"/>
     </row>
     <row r="56" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="128"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="134"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="103"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="99"/>
       <c r="E56" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F56" s="130"/>
-      <c r="G56" s="129"/>
+      <c r="G56" s="127"/>
       <c r="H56" s="34" t="s">
         <v>43</v>
       </c>
@@ -10968,23 +10974,23 @@
       <c r="AC56" s="3"/>
     </row>
     <row r="57" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="126" t="s">
+      <c r="A57" s="65" t="s">
         <v>60</v>
       </c>
       <c r="B57" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="129" t="s">
+      <c r="C57" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D57" s="136" t="s">
+      <c r="D57" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E57" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F57" s="130"/>
-      <c r="G57" s="129" t="s">
+      <c r="G57" s="127" t="s">
         <v>65</v>
       </c>
       <c r="H57" s="33" t="s">
@@ -11015,15 +11021,15 @@
       <c r="AC57" s="3"/>
     </row>
     <row r="58" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="128"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="133"/>
-      <c r="C58" s="128"/>
-      <c r="D58" s="100"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="62"/>
       <c r="E58" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F58" s="130"/>
-      <c r="G58" s="129"/>
+      <c r="G58" s="127"/>
       <c r="H58" s="34" t="s">
         <v>24</v>
       </c>
@@ -11052,15 +11058,15 @@
       <c r="AC58" s="3"/>
     </row>
     <row r="59" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="128"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="133"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="100"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="62"/>
       <c r="E59" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F59" s="130"/>
-      <c r="G59" s="129"/>
+      <c r="G59" s="127"/>
       <c r="H59" s="34" t="s">
         <v>42</v>
       </c>
@@ -11089,15 +11095,15 @@
       <c r="AC59" s="3"/>
     </row>
     <row r="60" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="128"/>
+      <c r="A60" s="129"/>
       <c r="B60" s="134"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="103"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="99"/>
       <c r="E60" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F60" s="130"/>
-      <c r="G60" s="129"/>
+      <c r="G60" s="127"/>
       <c r="H60" s="34" t="s">
         <v>43</v>
       </c>
@@ -11126,23 +11132,23 @@
       <c r="AC60" s="3"/>
     </row>
     <row r="61" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="137" t="s">
+      <c r="A61" s="135" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="129" t="s">
+      <c r="C61" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="136" t="s">
+      <c r="D61" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E61" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F61" s="130"/>
-      <c r="G61" s="129" t="s">
+      <c r="G61" s="127" t="s">
         <v>66</v>
       </c>
       <c r="H61" s="33" t="s">
@@ -11173,15 +11179,15 @@
       <c r="AC61" s="3"/>
     </row>
     <row r="62" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="128"/>
+      <c r="A62" s="129"/>
       <c r="B62" s="133"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="100"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="62"/>
       <c r="E62" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F62" s="130"/>
-      <c r="G62" s="129"/>
+      <c r="G62" s="127"/>
       <c r="H62" s="34" t="s">
         <v>24</v>
       </c>
@@ -11210,15 +11216,15 @@
       <c r="AC62" s="3"/>
     </row>
     <row r="63" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="128"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="133"/>
-      <c r="C63" s="128"/>
-      <c r="D63" s="100"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="62"/>
       <c r="E63" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F63" s="130"/>
-      <c r="G63" s="129"/>
+      <c r="G63" s="127"/>
       <c r="H63" s="34" t="s">
         <v>42</v>
       </c>
@@ -11247,15 +11253,15 @@
       <c r="AC63" s="3"/>
     </row>
     <row r="64" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="128"/>
+      <c r="A64" s="129"/>
       <c r="B64" s="134"/>
-      <c r="C64" s="128"/>
-      <c r="D64" s="103"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="99"/>
       <c r="E64" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F64" s="130"/>
-      <c r="G64" s="129"/>
+      <c r="G64" s="127"/>
       <c r="H64" s="34" t="s">
         <v>43</v>
       </c>
@@ -11284,23 +11290,23 @@
       <c r="AC64" s="3"/>
     </row>
     <row r="65" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="126" t="s">
+      <c r="A65" s="65" t="s">
         <v>62</v>
       </c>
       <c r="B65" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C65" s="129" t="s">
+      <c r="C65" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="136" t="s">
+      <c r="D65" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E65" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F65" s="130"/>
-      <c r="G65" s="129" t="s">
+      <c r="G65" s="127" t="s">
         <v>67</v>
       </c>
       <c r="H65" s="33" t="s">
@@ -11331,15 +11337,15 @@
       <c r="AC65" s="3"/>
     </row>
     <row r="66" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="128"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="133"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="100"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="62"/>
       <c r="E66" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F66" s="130"/>
-      <c r="G66" s="129"/>
+      <c r="G66" s="127"/>
       <c r="H66" s="34" t="s">
         <v>24</v>
       </c>
@@ -11368,15 +11374,15 @@
       <c r="AC66" s="3"/>
     </row>
     <row r="67" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="128"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="133"/>
-      <c r="C67" s="128"/>
-      <c r="D67" s="100"/>
+      <c r="C67" s="129"/>
+      <c r="D67" s="62"/>
       <c r="E67" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F67" s="130"/>
-      <c r="G67" s="129"/>
+      <c r="G67" s="127"/>
       <c r="H67" s="34" t="s">
         <v>42</v>
       </c>
@@ -11405,15 +11411,15 @@
       <c r="AC67" s="3"/>
     </row>
     <row r="68" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="128"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="134"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="103"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="99"/>
       <c r="E68" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F68" s="130"/>
-      <c r="G68" s="129"/>
+      <c r="G68" s="127"/>
       <c r="H68" s="34" t="s">
         <v>43</v>
       </c>
@@ -11442,23 +11448,23 @@
       <c r="AC68" s="3"/>
     </row>
     <row r="69" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="137" t="s">
+      <c r="A69" s="135" t="s">
         <v>63</v>
       </c>
       <c r="B69" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C69" s="129" t="s">
+      <c r="C69" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="136" t="s">
+      <c r="D69" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E69" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F69" s="130"/>
-      <c r="G69" s="129" t="s">
+      <c r="G69" s="127" t="s">
         <v>68</v>
       </c>
       <c r="H69" s="33" t="s">
@@ -11489,15 +11495,15 @@
       <c r="AC69" s="3"/>
     </row>
     <row r="70" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="128"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="133"/>
-      <c r="C70" s="128"/>
-      <c r="D70" s="100"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="62"/>
       <c r="E70" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F70" s="130"/>
-      <c r="G70" s="129"/>
+      <c r="G70" s="127"/>
       <c r="H70" s="34" t="s">
         <v>24</v>
       </c>
@@ -11526,15 +11532,15 @@
       <c r="AC70" s="3"/>
     </row>
     <row r="71" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="128"/>
+      <c r="A71" s="129"/>
       <c r="B71" s="133"/>
-      <c r="C71" s="128"/>
-      <c r="D71" s="100"/>
+      <c r="C71" s="129"/>
+      <c r="D71" s="62"/>
       <c r="E71" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F71" s="130"/>
-      <c r="G71" s="129"/>
+      <c r="G71" s="127"/>
       <c r="H71" s="34" t="s">
         <v>42</v>
       </c>
@@ -11563,15 +11569,15 @@
       <c r="AC71" s="3"/>
     </row>
     <row r="72" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="128"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="134"/>
-      <c r="C72" s="128"/>
-      <c r="D72" s="103"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="99"/>
       <c r="E72" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F72" s="130"/>
-      <c r="G72" s="129"/>
+      <c r="G72" s="127"/>
       <c r="H72" s="34" t="s">
         <v>43</v>
       </c>
@@ -11600,23 +11606,23 @@
       <c r="AC72" s="3"/>
     </row>
     <row r="73" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="126" t="s">
+      <c r="A73" s="65" t="s">
         <v>64</v>
       </c>
       <c r="B73" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="129" t="s">
+      <c r="C73" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="136" t="s">
+      <c r="D73" s="131" t="s">
         <v>72</v>
       </c>
       <c r="E73" s="130" t="s">
         <v>33</v>
       </c>
       <c r="F73" s="130"/>
-      <c r="G73" s="129" t="s">
+      <c r="G73" s="127" t="s">
         <v>67</v>
       </c>
       <c r="H73" s="33" t="s">
@@ -11647,15 +11653,15 @@
       <c r="AC73" s="3"/>
     </row>
     <row r="74" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="128"/>
+      <c r="A74" s="129"/>
       <c r="B74" s="133"/>
-      <c r="C74" s="128"/>
-      <c r="D74" s="100"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="62"/>
       <c r="E74" s="130" t="s">
         <v>35</v>
       </c>
       <c r="F74" s="130"/>
-      <c r="G74" s="129"/>
+      <c r="G74" s="127"/>
       <c r="H74" s="34" t="s">
         <v>24</v>
       </c>
@@ -11684,15 +11690,15 @@
       <c r="AC74" s="3"/>
     </row>
     <row r="75" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="128"/>
+      <c r="A75" s="129"/>
       <c r="B75" s="133"/>
-      <c r="C75" s="128"/>
-      <c r="D75" s="100"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="62"/>
       <c r="E75" s="130" t="s">
         <v>36</v>
       </c>
       <c r="F75" s="130"/>
-      <c r="G75" s="129"/>
+      <c r="G75" s="127"/>
       <c r="H75" s="34" t="s">
         <v>42</v>
       </c>
@@ -11721,15 +11727,15 @@
       <c r="AC75" s="3"/>
     </row>
     <row r="76" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="128"/>
+      <c r="A76" s="129"/>
       <c r="B76" s="134"/>
-      <c r="C76" s="128"/>
-      <c r="D76" s="103"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="99"/>
       <c r="E76" s="130" t="s">
         <v>37</v>
       </c>
       <c r="F76" s="130"/>
-      <c r="G76" s="129"/>
+      <c r="G76" s="127"/>
       <c r="H76" s="34" t="s">
         <v>43</v>
       </c>
@@ -11758,13 +11764,13 @@
       <c r="AC76" s="3"/>
     </row>
     <row r="77" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="127"/>
+      <c r="A77" s="141"/>
       <c r="B77" s="132"/>
-      <c r="C77" s="129"/>
-      <c r="D77" s="136"/>
+      <c r="C77" s="127"/>
+      <c r="D77" s="131"/>
       <c r="E77" s="130"/>
       <c r="F77" s="130"/>
-      <c r="G77" s="129"/>
+      <c r="G77" s="127"/>
       <c r="H77" s="33"/>
       <c r="I77" s="33"/>
       <c r="J77" s="34"/>
@@ -11789,13 +11795,13 @@
       <c r="AC77" s="3"/>
     </row>
     <row r="78" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="128"/>
+      <c r="A78" s="129"/>
       <c r="B78" s="133"/>
-      <c r="C78" s="128"/>
-      <c r="D78" s="100"/>
+      <c r="C78" s="129"/>
+      <c r="D78" s="62"/>
       <c r="E78" s="130"/>
       <c r="F78" s="130"/>
-      <c r="G78" s="129"/>
+      <c r="G78" s="127"/>
       <c r="H78" s="34"/>
       <c r="I78" s="35"/>
       <c r="J78" s="34"/>
@@ -11820,13 +11826,13 @@
       <c r="AC78" s="3"/>
     </row>
     <row r="79" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="128"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="133"/>
-      <c r="C79" s="128"/>
-      <c r="D79" s="100"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="62"/>
       <c r="E79" s="130"/>
       <c r="F79" s="130"/>
-      <c r="G79" s="129"/>
+      <c r="G79" s="127"/>
       <c r="H79" s="34"/>
       <c r="I79" s="34"/>
       <c r="J79" s="34"/>
@@ -11851,13 +11857,13 @@
       <c r="AC79" s="3"/>
     </row>
     <row r="80" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="128"/>
+      <c r="A80" s="129"/>
       <c r="B80" s="134"/>
-      <c r="C80" s="128"/>
-      <c r="D80" s="103"/>
+      <c r="C80" s="129"/>
+      <c r="D80" s="99"/>
       <c r="E80" s="130"/>
       <c r="F80" s="130"/>
-      <c r="G80" s="129"/>
+      <c r="G80" s="127"/>
       <c r="H80" s="34"/>
       <c r="I80" s="36"/>
       <c r="J80" s="34"/>
@@ -11882,13 +11888,13 @@
       <c r="AC80" s="3"/>
     </row>
     <row r="81" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="135"/>
+      <c r="A81" s="128"/>
       <c r="B81" s="132"/>
-      <c r="C81" s="129"/>
-      <c r="D81" s="136"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="131"/>
       <c r="E81" s="130"/>
       <c r="F81" s="130"/>
-      <c r="G81" s="129"/>
+      <c r="G81" s="127"/>
       <c r="H81" s="33"/>
       <c r="I81" s="33"/>
       <c r="J81" s="34"/>
@@ -11913,13 +11919,13 @@
       <c r="AC81" s="3"/>
     </row>
     <row r="82" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="128"/>
+      <c r="A82" s="129"/>
       <c r="B82" s="133"/>
-      <c r="C82" s="128"/>
-      <c r="D82" s="100"/>
+      <c r="C82" s="129"/>
+      <c r="D82" s="62"/>
       <c r="E82" s="130"/>
       <c r="F82" s="130"/>
-      <c r="G82" s="129"/>
+      <c r="G82" s="127"/>
       <c r="H82" s="34"/>
       <c r="I82" s="35"/>
       <c r="J82" s="34"/>
@@ -11944,13 +11950,13 @@
       <c r="AC82" s="3"/>
     </row>
     <row r="83" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="128"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="133"/>
-      <c r="C83" s="128"/>
-      <c r="D83" s="100"/>
+      <c r="C83" s="129"/>
+      <c r="D83" s="62"/>
       <c r="E83" s="130"/>
       <c r="F83" s="130"/>
-      <c r="G83" s="129"/>
+      <c r="G83" s="127"/>
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
       <c r="J83" s="34"/>
@@ -11975,13 +11981,13 @@
       <c r="AC83" s="3"/>
     </row>
     <row r="84" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="128"/>
+      <c r="A84" s="129"/>
       <c r="B84" s="134"/>
-      <c r="C84" s="128"/>
-      <c r="D84" s="103"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="99"/>
       <c r="E84" s="130"/>
       <c r="F84" s="130"/>
-      <c r="G84" s="129"/>
+      <c r="G84" s="127"/>
       <c r="H84" s="34"/>
       <c r="I84" s="36"/>
       <c r="J84" s="37"/>
@@ -12006,13 +12012,13 @@
       <c r="AC84" s="3"/>
     </row>
     <row r="85" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="127"/>
+      <c r="A85" s="141"/>
       <c r="B85" s="132"/>
-      <c r="C85" s="129"/>
-      <c r="D85" s="136"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="131"/>
       <c r="E85" s="130"/>
       <c r="F85" s="130"/>
-      <c r="G85" s="129"/>
+      <c r="G85" s="127"/>
       <c r="H85" s="33"/>
       <c r="I85" s="33"/>
       <c r="J85" s="34"/>
@@ -12037,13 +12043,13 @@
       <c r="AC85" s="3"/>
     </row>
     <row r="86" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="128"/>
+      <c r="A86" s="129"/>
       <c r="B86" s="133"/>
-      <c r="C86" s="128"/>
-      <c r="D86" s="100"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="62"/>
       <c r="E86" s="130"/>
       <c r="F86" s="130"/>
-      <c r="G86" s="129"/>
+      <c r="G86" s="127"/>
       <c r="H86" s="34"/>
       <c r="I86" s="35"/>
       <c r="J86" s="34"/>
@@ -12068,13 +12074,13 @@
       <c r="AC86" s="3"/>
     </row>
     <row r="87" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="128"/>
+      <c r="A87" s="129"/>
       <c r="B87" s="133"/>
-      <c r="C87" s="128"/>
-      <c r="D87" s="100"/>
+      <c r="C87" s="129"/>
+      <c r="D87" s="62"/>
       <c r="E87" s="130"/>
       <c r="F87" s="130"/>
-      <c r="G87" s="129"/>
+      <c r="G87" s="127"/>
       <c r="H87" s="34"/>
       <c r="I87" s="34"/>
       <c r="J87" s="34"/>
@@ -12099,13 +12105,13 @@
       <c r="AC87" s="3"/>
     </row>
     <row r="88" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="128"/>
+      <c r="A88" s="129"/>
       <c r="B88" s="134"/>
-      <c r="C88" s="128"/>
-      <c r="D88" s="103"/>
+      <c r="C88" s="129"/>
+      <c r="D88" s="99"/>
       <c r="E88" s="130"/>
       <c r="F88" s="130"/>
-      <c r="G88" s="129"/>
+      <c r="G88" s="127"/>
       <c r="H88" s="34"/>
       <c r="I88" s="36"/>
       <c r="J88" s="34"/>
@@ -12130,13 +12136,13 @@
       <c r="AC88" s="3"/>
     </row>
     <row r="89" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="135"/>
+      <c r="A89" s="128"/>
       <c r="B89" s="132"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="136"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="131"/>
       <c r="E89" s="130"/>
       <c r="F89" s="130"/>
-      <c r="G89" s="129"/>
+      <c r="G89" s="127"/>
       <c r="H89" s="33"/>
       <c r="I89" s="33"/>
       <c r="J89" s="34"/>
@@ -12161,13 +12167,13 @@
       <c r="AC89" s="3"/>
     </row>
     <row r="90" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="128"/>
+      <c r="A90" s="129"/>
       <c r="B90" s="133"/>
-      <c r="C90" s="128"/>
-      <c r="D90" s="100"/>
+      <c r="C90" s="129"/>
+      <c r="D90" s="62"/>
       <c r="E90" s="130"/>
       <c r="F90" s="130"/>
-      <c r="G90" s="129"/>
+      <c r="G90" s="127"/>
       <c r="H90" s="34"/>
       <c r="I90" s="35"/>
       <c r="J90" s="34"/>
@@ -12192,13 +12198,13 @@
       <c r="AC90" s="3"/>
     </row>
     <row r="91" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="128"/>
+      <c r="A91" s="129"/>
       <c r="B91" s="133"/>
-      <c r="C91" s="128"/>
-      <c r="D91" s="100"/>
+      <c r="C91" s="129"/>
+      <c r="D91" s="62"/>
       <c r="E91" s="130"/>
       <c r="F91" s="130"/>
-      <c r="G91" s="129"/>
+      <c r="G91" s="127"/>
       <c r="H91" s="34"/>
       <c r="I91" s="34"/>
       <c r="J91" s="34"/>
@@ -12223,13 +12229,13 @@
       <c r="AC91" s="3"/>
     </row>
     <row r="92" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="128"/>
+      <c r="A92" s="129"/>
       <c r="B92" s="134"/>
-      <c r="C92" s="128"/>
-      <c r="D92" s="103"/>
+      <c r="C92" s="129"/>
+      <c r="D92" s="99"/>
       <c r="E92" s="130"/>
       <c r="F92" s="130"/>
-      <c r="G92" s="129"/>
+      <c r="G92" s="127"/>
       <c r="H92" s="34"/>
       <c r="I92" s="36"/>
       <c r="J92" s="34"/>
@@ -12254,13 +12260,13 @@
       <c r="AC92" s="3"/>
     </row>
     <row r="93" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="127"/>
+      <c r="A93" s="141"/>
       <c r="B93" s="132"/>
-      <c r="C93" s="129"/>
-      <c r="D93" s="129"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="127"/>
       <c r="E93" s="130"/>
       <c r="F93" s="130"/>
-      <c r="G93" s="129"/>
+      <c r="G93" s="127"/>
       <c r="H93" s="33"/>
       <c r="I93" s="33"/>
       <c r="J93" s="34"/>
@@ -12285,13 +12291,13 @@
       <c r="AC93" s="3"/>
     </row>
     <row r="94" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="128"/>
+      <c r="A94" s="129"/>
       <c r="B94" s="133"/>
-      <c r="C94" s="128"/>
-      <c r="D94" s="131"/>
+      <c r="C94" s="129"/>
+      <c r="D94" s="142"/>
       <c r="E94" s="130"/>
       <c r="F94" s="130"/>
-      <c r="G94" s="129"/>
+      <c r="G94" s="127"/>
       <c r="H94" s="34"/>
       <c r="I94" s="35"/>
       <c r="J94" s="34"/>
@@ -12316,13 +12322,13 @@
       <c r="AC94" s="3"/>
     </row>
     <row r="95" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="128"/>
+      <c r="A95" s="129"/>
       <c r="B95" s="133"/>
-      <c r="C95" s="128"/>
-      <c r="D95" s="131"/>
+      <c r="C95" s="129"/>
+      <c r="D95" s="142"/>
       <c r="E95" s="130"/>
       <c r="F95" s="130"/>
-      <c r="G95" s="129"/>
+      <c r="G95" s="127"/>
       <c r="H95" s="34"/>
       <c r="I95" s="34"/>
       <c r="J95" s="34"/>
@@ -12347,13 +12353,13 @@
       <c r="AC95" s="3"/>
     </row>
     <row r="96" spans="1:29" s="22" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="128"/>
+      <c r="A96" s="129"/>
       <c r="B96" s="134"/>
-      <c r="C96" s="128"/>
-      <c r="D96" s="131"/>
+      <c r="C96" s="129"/>
+      <c r="D96" s="142"/>
       <c r="E96" s="130"/>
       <c r="F96" s="130"/>
-      <c r="G96" s="129"/>
+      <c r="G96" s="127"/>
       <c r="H96" s="34"/>
       <c r="I96" s="36"/>
       <c r="J96" s="34"/>
@@ -13371,6 +13377,189 @@
     </row>
   </sheetData>
   <mergeCells count="207">
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="G93:G96"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="D89:D92"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="E85:F85"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="D85:D88"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="C81:C84"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="E77:F77"/>
+    <mergeCell ref="G77:G80"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G73:G76"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="D61:D64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="G49:G52"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:G48"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="C37:C40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D17:D20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="B21:B24"/>
     <mergeCell ref="G29:G32"/>
     <mergeCell ref="G13:G16"/>
     <mergeCell ref="G9:G12"/>
@@ -13395,189 +13584,6 @@
     <mergeCell ref="B29:B32"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:G36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="C37:C40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="A41:A44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="G45:G48"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="G49:G52"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="D61:D64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="D65:D68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G73:G76"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="E77:F77"/>
-    <mergeCell ref="G77:G80"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="E85:F85"/>
-    <mergeCell ref="G85:G88"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="D85:D88"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:G92"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="E92:F92"/>
-    <mergeCell ref="D89:D92"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="E93:F93"/>
-    <mergeCell ref="G93:G96"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E96:F96"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="B93:B96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
